--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ValidLogin" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UserName</t>
   </si>
   <si>
     <t>Bhanu</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -381,12 +387,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -387,10 +393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,6 +413,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
